--- a/backend/api/servicehandler/services/Daycare.xlsx
+++ b/backend/api/servicehandler/services/Daycare.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D7DF0ECA-DF9B-4ADC-8EB7-7041B612D7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517049C-553D-D746-A95E-422173F2A458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="165">
   <si>
     <t>https://www.myautismguide.ca/mag/content/provider/autism-consultants-nb?nid=567241</t>
   </si>
@@ -65,9 +64,6 @@
     <t>85 Le Maire St. Winnipeg, MBR3V 1E1</t>
   </si>
   <si>
-    <t>431-531-8701</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/brightpath?nid=562091</t>
   </si>
   <si>
@@ -221,9 +217,6 @@
     <t>St. Mark's United Church, 201 Centre St. S. Whitby, ONL1V 4V7</t>
   </si>
   <si>
-    <t>905-420-0388</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/fredericton-regional-family-resource-centre?nid=567511</t>
   </si>
   <si>
@@ -269,9 +262,6 @@
     <t>423 9th Ave N Golden, BCV0A 1H0</t>
   </si>
   <si>
-    <t>250-344-4996</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/growing-changes?nid=559636</t>
   </si>
   <si>
@@ -293,9 +283,6 @@
     <t>Toronto, ON</t>
   </si>
   <si>
-    <t>416-508-1780</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/harmonic-expressions?nid=573141</t>
   </si>
   <si>
@@ -365,9 +352,6 @@
     <t>600-3250 Bloor St W  Etobicoke, ONL7G 0N5</t>
   </si>
   <si>
-    <t>416-480-7254</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/lo-se-ca-foundation?nid=560186</t>
   </si>
   <si>
@@ -389,18 +373,12 @@
     <t>150 Redwood Avenue West Thunder Bay, ONP7C 1Z6</t>
   </si>
   <si>
-    <t>807-623-9580</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/mahmowenchike-family-development-centre-2?nid=588501</t>
   </si>
   <si>
     <t>1130 Georgina Avenue Thunder Bay, ONP7E 3J1</t>
   </si>
   <si>
-    <t>807-473-5848</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/mahmowenchike-family-development-centre-3?nid=588506</t>
   </si>
   <si>
@@ -440,9 +418,6 @@
     <t>1610 John Street Road Thunder Bay, ONP7G 1J9</t>
   </si>
   <si>
-    <t>807-768-2342</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/step-step-child-development-society-0?nid=588751</t>
   </si>
   <si>
@@ -452,9 +427,6 @@
     <t>PO Box 47601, Blue Mountain Post Office  Coquitlam, BCV3K 3P1</t>
   </si>
   <si>
-    <t>604-931-1977</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/vantage-enterprises-ltd-0?nid=588846</t>
   </si>
   <si>
@@ -464,9 +436,6 @@
     <t>#219 - 18 St SE Calgary, ABT2E 6J5</t>
   </si>
   <si>
-    <t>403 276 9403</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/yes-i-can?nid=578531</t>
   </si>
   <si>
@@ -519,13 +488,40 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>(403) 276-9403</t>
+  </si>
+  <si>
+    <t>(604) 931-1977</t>
+  </si>
+  <si>
+    <t>(807) 768-2342</t>
+  </si>
+  <si>
+    <t>(807) 473-5848</t>
+  </si>
+  <si>
+    <t>(807) 473-5849</t>
+  </si>
+  <si>
+    <t>(807) 623-9580</t>
+  </si>
+  <si>
+    <t>(416) 480-7254</t>
+  </si>
+  <si>
+    <t>(250) 344-4996</t>
+  </si>
+  <si>
+    <t>(431) 531-8701</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,6 +533,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -906,33 +908,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.75" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -946,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -960,7 +962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -974,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -985,598 +987,599 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>95</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
         <v>105</v>
       </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D33" t="s">
         <v>106</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>109</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
         <v>112</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
         <v>113</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
         <v>115</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>116</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>117</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>119</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>121</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B39" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C39" t="s">
         <v>123</v>
       </c>
-      <c r="B37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D39" t="s">
         <v>124</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B40" t="s">
         <v>126</v>
       </c>
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>127</v>
       </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D40" t="s">
         <v>128</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>129</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
         <v>130</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>133</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>134</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B43" t="s">
         <v>136</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C43" t="s">
         <v>137</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>138</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B44" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C44" t="s">
         <v>140</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D44" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>142</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>144</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>145</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>146</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>148</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>149</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>150</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" t="s">
-        <v>161</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
